--- a/Mifos Automation Excels/Client/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -181,18 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +521,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -571,22 +559,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="5">
-        <v>820.83</v>
+        <v>816.66</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>9179.17</v>
+        <v>9183.34</v>
       </c>
       <c r="F2" s="5">
-        <v>845.83</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>274.72000000000003</v>
+        <v>282.74</v>
       </c>
       <c r="B3" s="5">
         <v>41.67</v>
@@ -598,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>237.22</v>
+        <v>241.07</v>
       </c>
       <c r="F3" s="5">
-        <v>11.47</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -654,7 +642,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -670,7 +658,7 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,6 +734,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -772,20 +761,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>F3-H3</f>
-        <v>808.33</v>
+        <v>0</v>
       </c>
       <c r="K3" s="5">
         <v>858.33</v>
       </c>
       <c r="L3" s="5">
-        <v>845.83</v>
+        <v>841.66</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>845.83</v>
+        <v>841.66</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
       </c>
       <c r="P3" s="5">
         <v>16.670000000000002</v>
@@ -830,6 +821,9 @@
         <v>0</v>
       </c>
       <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
@@ -855,7 +849,7 @@
         <v>8333.34</v>
       </c>
       <c r="H5" s="5">
-        <v>16.670000000000002</v>
+        <v>15.31</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -864,8 +858,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>F5-H5</f>
-        <v>816.66000000000008</v>
+        <v>848.64</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -876,8 +869,11 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
       <c r="P5" s="5">
-        <v>844.8</v>
+        <v>848.64</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -899,7 +895,7 @@
         <v>7500.01</v>
       </c>
       <c r="H6" s="5">
-        <v>38.25</v>
+        <v>38.26</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -908,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>871.58</v>
+        <v>871.59</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -919,8 +915,11 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
       <c r="P6" s="5">
-        <v>871.58</v>
+        <v>871.59</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -962,6 +961,9 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
       <c r="P7" s="5">
         <v>870.83</v>
       </c>
@@ -1005,6 +1007,9 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
       <c r="P8" s="5">
         <v>866.66</v>
       </c>
@@ -1048,6 +1053,9 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
       <c r="P9" s="5">
         <v>862.5</v>
       </c>
@@ -1091,6 +1099,9 @@
       <c r="N10" s="5">
         <v>0</v>
       </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
       <c r="P10" s="5">
         <v>858.33</v>
       </c>
@@ -1134,6 +1145,9 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
       <c r="P11" s="5">
         <v>854.16</v>
       </c>
@@ -1177,6 +1191,9 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
       <c r="P12" s="5">
         <v>850</v>
       </c>
@@ -1220,6 +1237,9 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
       <c r="P13" s="5">
         <v>845.83</v>
       </c>
@@ -1263,6 +1283,9 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
       <c r="P14" s="5">
         <v>841.66</v>
       </c>
@@ -1304,6 +1327,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5">
@@ -1317,17 +1343,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1336,7 +1363,7 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -1368,67 +1395,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>42050</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>858.33</v>
       </c>
-      <c r="F2" s="10">
-        <v>820.83</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2" s="5">
+        <v>816.66</v>
+      </c>
+      <c r="G2" s="5">
         <v>41.67</v>
       </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>9179.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9183.34</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="3">
         <v>10000</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -192,6 +197,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -239,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +280,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,10 +681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,11 +700,12 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -700,15 +743,16 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
@@ -735,8 +779,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -772,17 +817,18 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>841.66</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
       <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -820,17 +866,18 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -866,17 +913,18 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>848.64</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -912,17 +960,18 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>871.59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -958,17 +1007,18 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>870.83</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1004,17 +1054,18 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>866.66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1050,17 +1101,18 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>862.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1096,17 +1148,18 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>858.33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1142,17 +1195,18 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>854.16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1188,17 +1242,18 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1234,17 +1289,18 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>845.83</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1280,17 +1336,18 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>841.66</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1326,13 +1383,14 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>837.54</v>
       </c>
     </row>
